--- a/前端学习路线.xlsx
+++ b/前端学习路线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小楷\Desktop\前端学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B067A6EE-FCB7-4B32-BB11-38DDFFC44EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA4E50-CB9B-4B78-A913-125755FA2664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>JS初级</t>
   </si>
   <si>
-    <t>https://www.bilibili.com/video/BV1YW411T7GX?spm_id_from=333.999.0.0</t>
-  </si>
-  <si>
     <t>认真看完</t>
   </si>
   <si>
@@ -174,6 +171,10 @@
   </si>
   <si>
     <t>HTML,CSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1YW411T7GX?spm_id_from=333.999.0.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +528,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -550,10 +551,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -563,182 +564,182 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +750,7 @@
     <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B2" r:id="rId5" xr:uid="{AEFBE53C-D968-4EC3-A675-D293E7099403}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{1431D072-4869-4AAA-8E6C-30F763580CAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/前端学习路线.xlsx
+++ b/前端学习路线.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小楷\Desktop\前端学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA4E50-CB9B-4B78-A913-125755FA2664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC9EE6-E7E3-48AC-9AC9-B1E6B04062AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>ES6</t>
   </si>
   <si>
-    <t>https://www.bilibili.com/video/BV18y4y1C7L7?spm_id_from=333.999.0.0</t>
-  </si>
-  <si>
     <t>vue初步认识</t>
   </si>
   <si>
@@ -175,6 +172,10 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1YW411T7GX?spm_id_from=333.999.0.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV18y4y1C7L7?spm_id_from=333.999.0.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +529,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -551,10 +552,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -565,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -575,8 +576,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -584,162 +585,162 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
         <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -751,6 +752,7 @@
     <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B2" r:id="rId5" xr:uid="{AEFBE53C-D968-4EC3-A675-D293E7099403}"/>
     <hyperlink ref="B3" r:id="rId6" xr:uid="{1431D072-4869-4AAA-8E6C-30F763580CAE}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{D3B19EC6-6192-4E6B-9A33-F293A2CCE2CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/前端学习路线.xlsx
+++ b/前端学习路线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小楷\Desktop\前端学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC9EE6-E7E3-48AC-9AC9-B1E6B04062AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB6358C-A58E-4174-9813-CC9D78B8E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>技术点</t>
   </si>
@@ -176,6 +176,25 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV18y4y1C7L7?spm_id_from=333.999.0.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Q54y1k7QP/?spm_id_from=333.788.video.desc.click&amp;vd_source=1f9072e850dde202d6ddd4c60d9d334d</t>
+  </si>
+  <si>
+    <t>ES6补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按需观看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1BU4y147pS?p=28&amp;spm_id_from=pageDriver&amp;vd_source=4333235a77bb36370fddf058435fa4bf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8-P20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -584,175 +603,198 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B2" r:id="rId5" xr:uid="{AEFBE53C-D968-4EC3-A675-D293E7099403}"/>
     <hyperlink ref="B3" r:id="rId6" xr:uid="{1431D072-4869-4AAA-8E6C-30F763580CAE}"/>
     <hyperlink ref="B4" r:id="rId7" xr:uid="{D3B19EC6-6192-4E6B-9A33-F293A2CCE2CA}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{5636644E-14B5-4CC0-B78D-501DE43B7DAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/前端学习路线.xlsx
+++ b/前端学习路线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小楷\Desktop\前端学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB6358C-A58E-4174-9813-CC9D78B8E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048727D-0E4F-47AE-93BD-4AD5F62062FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>技术点</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>P8-P20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node.js</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -782,6 +786,11 @@
       </c>
       <c r="B32" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/前端学习路线.xlsx
+++ b/前端学习路线.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\小楷\Desktop\前端学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3048727D-0E4F-47AE-93BD-4AD5F62062FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AE9E38-1535-4328-B543-CFB6A0E19DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
